--- a/Planning.xlsx
+++ b/Planning.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>Deadline full grade</t>
   </si>
@@ -53,6 +53,30 @@
   </si>
   <si>
     <t>improving code/writing report</t>
+  </si>
+  <si>
+    <t>Making the server and clients (multiple threads)</t>
+  </si>
+  <si>
+    <t>adjusting code to work with server/client implementation</t>
+  </si>
+  <si>
+    <t>GUI</t>
+  </si>
+  <si>
+    <t>Leaderboard</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>Chat Box</t>
+  </si>
+  <si>
+    <t>Testing if everything works as intended</t>
+  </si>
+  <si>
+    <t>The points on the i placing</t>
   </si>
 </sst>
 </file>
@@ -91,10 +115,10 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -400,25 +424,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="2"/>
+    <col min="8" max="9" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="28.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="9.140625" style="2"/>
+    <col min="17" max="17" width="18.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
@@ -480,7 +507,7 @@
         <v>42769</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -499,7 +526,6 @@
       <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="2"/>
       <c r="H2" s="2" t="s">
         <v>10</v>
       </c>
@@ -515,17 +541,11 @@
       <c r="L2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
       <c r="Q2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -535,64 +555,48 @@
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
+      <c r="H4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
+      <c r="H5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Planning.xlsx
+++ b/Planning.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17571"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>Deadline full grade</t>
   </si>
@@ -76,16 +76,41 @@
     <t>Testing if everything works as intended</t>
   </si>
   <si>
-    <t>The points on the i placing</t>
+    <t>Finish documentation of game / Begin writing report</t>
+  </si>
+  <si>
+    <t>Write finished report</t>
+  </si>
+  <si>
+    <t>The points on the i placing / writing report about additional features</t>
+  </si>
+  <si>
+    <t>Making game playable</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -112,17 +137,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -138,9 +169,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kantoor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -178,7 +209,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kantoor">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -213,6 +244,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -248,9 +296,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kantoor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -426,179 +491,195 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="2"/>
-    <col min="8" max="9" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="28.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="9.140625" style="2"/>
-    <col min="17" max="17" width="18.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.06640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.06640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.46484375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.06640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.46484375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.86328125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="28.46484375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.06640625" style="1" customWidth="1"/>
+    <col min="15" max="16" width="10.06640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="9.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1" spans="1:19" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A1" s="2">
         <v>42751</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="2">
         <v>42752</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="2">
         <v>42753</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="2">
         <v>42754</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="2">
         <v>42755</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="2">
         <v>42756</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="2">
         <v>42757</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H1" s="2">
         <v>42758</v>
       </c>
-      <c r="I1" s="1">
+      <c r="I1" s="2">
         <v>42759</v>
       </c>
-      <c r="J1" s="1">
+      <c r="J1" s="2">
         <v>42760</v>
       </c>
-      <c r="K1" s="1">
+      <c r="K1" s="2">
         <v>42761</v>
       </c>
-      <c r="L1" s="1">
+      <c r="L1" s="2">
         <v>42762</v>
       </c>
-      <c r="M1" s="1">
+      <c r="M1" s="2">
         <v>42763</v>
       </c>
-      <c r="N1" s="1">
+      <c r="N1" s="2">
         <v>42764</v>
       </c>
-      <c r="O1" s="1">
+      <c r="O1" s="2">
         <v>42765</v>
       </c>
-      <c r="P1" s="1">
+      <c r="P1" s="2">
         <v>42766</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="Q1" s="2">
         <v>42767</v>
       </c>
-      <c r="R1" s="1">
+      <c r="R1" s="2">
         <v>42768</v>
       </c>
-      <c r="S1" s="1">
+      <c r="S1" s="2">
         <v>42769</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:19" s="4" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="L2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="M2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="N2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="Q2" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:19" ht="51.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="F3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="K3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="L3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>20</v>
+      <c r="M3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H4" s="2" t="s">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="J4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="K4" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H5" s="2" t="s">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="J5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="K5" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H6" s="2" t="s">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="J6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="K6" s="1" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>